--- a/doc/策划/球体介绍.xlsx
+++ b/doc/策划/球体介绍.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YOKA\ball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\MiniGameWorkplace\Ball\doc\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894BFC9-56E3-4E0B-8252-2F9F9AD029E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9605A3-BC3C-4F14-8D74-18AF3DBF398C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="7" r:id="rId1"/>
-    <sheet name="2" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>id</t>
   </si>
@@ -129,9 +128,6 @@
     <t>特性3</t>
   </si>
   <si>
-    <t>特性4</t>
-  </si>
-  <si>
     <t>黑暗中发光</t>
   </si>
   <si>
@@ -163,19 +159,6 @@
     <t>猫咪喜欢</t>
   </si>
   <si>
-    <t>可以下落充当救援绳</t>
-  </si>
-  <si>
-    <t>高坠时散开的画面很解压</t>
-  </si>
-  <si>
-    <t>两个球缠绕在一起难以解开</t>
-  </si>
-  <si>
-    <t>特性5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最短路径：毛线团必须在规定长度前往下一个猫咪处，期间可返回原处（一键收绳），到达后球体会因为猫咪拨弄重新恢复可用长度</t>
   </si>
   <si>
@@ -486,35 +469,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>异性恋是禁忌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹力球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>可以下落充当救援绳；高坠时散开的画面很解压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Balls</t>
+  </si>
+  <si>
+    <t>Wooden ball</t>
+  </si>
+  <si>
+    <t>Water ball</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Earth Sphere</t>
+  </si>
+  <si>
+    <t>Stone ball</t>
+  </si>
+  <si>
+    <t>Paper ball</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>Billiard Balls</t>
+  </si>
+  <si>
+    <t>Glass Balls</t>
+  </si>
+  <si>
+    <t>Pinball</t>
+  </si>
+  <si>
+    <t>Cuju</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Backgammon</t>
+  </si>
+  <si>
+    <t>Anion Balls</t>
+  </si>
+  <si>
+    <t>Iron Absorbent</t>
+  </si>
+  <si>
+    <t>Yoyo</t>
+  </si>
+  <si>
+    <t>Frisbee</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>Hamster Wheel</t>
+  </si>
+  <si>
+    <t>Prickly Balls</t>
+  </si>
+  <si>
+    <t>Wool ball</t>
+  </si>
+  <si>
+    <t>Heads</t>
+  </si>
+  <si>
+    <t>Pacman ball</t>
+  </si>
+  <si>
+    <t>Dragon Ball</t>
+  </si>
+  <si>
+    <t>Ostrich Egg</t>
+  </si>
+  <si>
+    <t>Tadpole</t>
+  </si>
+  <si>
+    <t>Sheep dung</t>
+  </si>
+  <si>
+    <t>Goliath</t>
+  </si>
+  <si>
+    <t>Memory ball</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Elf Ball</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,13 +621,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -580,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -602,125 +664,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -747,36 +695,6 @@
         <color theme="1"/>
         <name val="等线"/>
         <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
@@ -938,40 +856,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6C6024D5-6735-475D-B480-3AF72565B102}" name="表1_4" displayName="表1_4" ref="A1:K37" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:K37" xr:uid="{655F11E7-F5FC-47AB-8FB2-12CE4AD200BE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
-    <sortCondition ref="D1:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6C6024D5-6735-475D-B480-3AF72565B102}" name="表1_4" displayName="表1_4" ref="A1:I35" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I35" xr:uid="{655F11E7-F5FC-47AB-8FB2-12CE4AD200BE}"/>
+  <sortState ref="A2:I35">
+    <sortCondition ref="D1:D35"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8A7FBDDD-28E0-4C3A-B6D3-2CD44E70AE4B}" name="id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6BE33C8C-51D9-424B-BD8E-D47E1E7BBB39}" name="名称" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C8E278BA-0A16-49B5-9BDE-E51AEA46256D}" name="name" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{9273D85F-7208-44D3-9476-5906EE4B6EEB}" name="喜剧" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{67488EE7-4F12-4EF8-88F5-9D8F8AFE5119}" name="特性" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CBBC866C-629A-4A19-88EF-018DFC8B108D}" name="特性2" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{8FF63F63-8E35-427B-902C-30D7C2B55531}" name="特性3" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{FE1DF70F-056D-466D-AFB6-17F3A465A0BA}" name="特性4" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{E68489C2-499B-46F7-8D40-9F8AF2EF9BA8}" name="特性5" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{C535AC03-0928-42BF-800E-D3AED70D0EBD}" name="简介" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{9F8611B1-12A1-46C0-A71D-66677A5F9295}" name="玩法" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A46B5398-C574-4C97-A59B-6EF15FA50786}" name="表1_42" displayName="表1_42" ref="A1:E35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E35" xr:uid="{655F11E7-F5FC-47AB-8FB2-12CE4AD200BE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
-    <sortCondition ref="C1:C29"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EC710C45-F920-4A01-9C44-A45E5483CB55}" name="id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FD23CC70-4855-4D56-9BAC-564082A03F0C}" name="名称" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{479B6E31-278D-4E76-B80D-CF211434FC8C}" name="B" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{38A87BCA-72B8-45DF-A2DB-FD1522B125E1}" name="主线" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{47123833-ACBE-4665-BAE9-F750E681D212}" name="列1" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8A7FBDDD-28E0-4C3A-B6D3-2CD44E70AE4B}" name="id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6BE33C8C-51D9-424B-BD8E-D47E1E7BBB39}" name="名称" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C8E278BA-0A16-49B5-9BDE-E51AEA46256D}" name="name" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{9273D85F-7208-44D3-9476-5906EE4B6EEB}" name="喜剧" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{67488EE7-4F12-4EF8-88F5-9D8F8AFE5119}" name="特性" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{CBBC866C-629A-4A19-88EF-018DFC8B108D}" name="特性2" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{8FF63F63-8E35-427B-902C-30D7C2B55531}" name="特性3" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C535AC03-0928-42BF-800E-D3AED70D0EBD}" name="简介" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9F8611B1-12A1-46C0-A71D-66677A5F9295}" name="玩法" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1240,25 +1139,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7680DD69-0322-4405-8CC5-31129431AE9D}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="16.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1281,1215 +1179,830 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D22" s="1">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D24" s="1">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D25" s="1">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D26" s="1">
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D27" s="1">
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D28" s="1">
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D31" s="1">
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="D33" s="1">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D34" s="1">
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9127DFB-5115-4E7F-B9CB-73935233A869}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="1">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>